--- a/Mifos Automation Excels/Client/4420-CreateCenter-ManageGroup-AddPendingGroup.xlsx
+++ b/Mifos Automation Excels/Client/4420-CreateCenter-ManageGroup-AddPendingGroup.xlsx
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
-  <si>
-    <t>externalid</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>submittedon</t>
   </si>
@@ -130,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -142,9 +139,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -448,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -466,31 +460,31 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6">
         <v>42005</v>
@@ -500,56 +494,48 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7">
-        <v>4404</v>
+      <c r="B5" s="6">
+        <v>42005</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6">
-        <v>42005</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -575,10 +561,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
